--- a/HyperCube_Evolution_Configuration_v1.4.xlsx
+++ b/HyperCube_Evolution_Configuration_v1.4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernan\Downloads\HyperCube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernan\Documents\GitHub\HyperCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -4267,10 +4267,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4278,52 +4278,55 @@
     <col min="1" max="1" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A9" s="79" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
         <v>173</v>
       </c>

--- a/HyperCube_Evolution_Configuration_v1.4.xlsx
+++ b/HyperCube_Evolution_Configuration_v1.4.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="229">
   <si>
     <t>Parameter name</t>
   </si>
@@ -593,12 +593,6 @@
   </si>
   <si>
     <t>Pulleys and Belts</t>
-  </si>
-  <si>
-    <t>2 x GT2 Timing Pulley (20 teeth) 5mm bore for 6mm belt</t>
-  </si>
-  <si>
-    <t>6 x GT2 Idler Pulley (20 teeth) 3mm bore</t>
   </si>
   <si>
     <t>2 x GT2 Idler Pulley without teeth (20 teeth) 3mm bore</t>
@@ -3320,7 +3314,7 @@
         <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3334,7 +3328,7 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3348,7 +3342,7 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3365,7 +3359,7 @@
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3379,7 +3373,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3393,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3407,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3421,7 +3415,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3435,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3449,31 +3443,31 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A15" s="79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3532,10 +3526,10 @@
         <v>145</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -4222,7 +4216,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C44" s="81">
         <v>8</v>
@@ -4267,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4381,33 +4375,33 @@
         <v>183</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="79" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="79" t="s">
+    <row r="35" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="80" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
+      <c r="A37" s="78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4432,21 +4426,21 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="78" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="80" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="79" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="78" t="s">
+    <row r="50" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="80" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A52" s="79" t="s">
         <v>200</v>
       </c>
@@ -4456,7 +4450,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="79" t="s">
         <v>202</v>
       </c>
@@ -4511,23 +4505,23 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A71" s="80" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="78" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="80" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="79" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="78" t="s">
+    <row r="76" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="80" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4569,16 +4563,6 @@
     <row r="88" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="80" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="79" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="80" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4591,23 +4575,23 @@
     <hyperlink ref="A22" r:id="rId6"/>
     <hyperlink ref="A27" r:id="rId7"/>
     <hyperlink ref="A30" r:id="rId8"/>
-    <hyperlink ref="A38" r:id="rId9"/>
-    <hyperlink ref="A42" r:id="rId10"/>
-    <hyperlink ref="A45" r:id="rId11"/>
-    <hyperlink ref="A48" r:id="rId12"/>
-    <hyperlink ref="A53" r:id="rId13"/>
-    <hyperlink ref="A56" r:id="rId14"/>
-    <hyperlink ref="A59" r:id="rId15"/>
-    <hyperlink ref="A62" r:id="rId16"/>
-    <hyperlink ref="A65" r:id="rId17"/>
-    <hyperlink ref="A68" r:id="rId18"/>
-    <hyperlink ref="A71" r:id="rId19"/>
-    <hyperlink ref="A74" r:id="rId20" display="https://www.aliexpress.com/item/2016-Newest-1-x-Optical-Endstop-End-Stop-Limit-Switch-Solution-for-3D-Printer-or-CNC/32656689805.html?spm=2114.01010208.3.9.TjpVYa&amp;ws_ab_test=searchweb0_0,searchweb201602_3_10152_10065_10151_10068_10136_10137_10060_10138_10155_10062_10156_10134_10154_10056_10055_10054_10059_10099_10103_10102_10096_10148_10147_10052_10053_10142_10107_10050_10051_10084_10083_10080_10082_10081_10177_10110_10111_10112_10113_10114_10181_10037_10033_10032_10078_10079_10077_10073_10070_10123_10124,searchweb201603_2,afswitch_1,ppcSwitch_7&amp;btsid=0a677c30-15c5-4511-bd9b-21cec7f98719&amp;algo_expid=9458fd9d-18ca-4360-9463-2e064369527b-4&amp;algo_pvid=9458fd9d-18ca-4360-9463-2e064369527b"/>
-    <hyperlink ref="A79" r:id="rId21"/>
-    <hyperlink ref="A82" r:id="rId22"/>
-    <hyperlink ref="A85" r:id="rId23"/>
-    <hyperlink ref="A88" r:id="rId24"/>
-    <hyperlink ref="A91" r:id="rId25"/>
+    <hyperlink ref="A35" r:id="rId9"/>
+    <hyperlink ref="A39" r:id="rId10"/>
+    <hyperlink ref="A42" r:id="rId11"/>
+    <hyperlink ref="A45" r:id="rId12"/>
+    <hyperlink ref="A50" r:id="rId13"/>
+    <hyperlink ref="A53" r:id="rId14"/>
+    <hyperlink ref="A56" r:id="rId15"/>
+    <hyperlink ref="A59" r:id="rId16"/>
+    <hyperlink ref="A62" r:id="rId17"/>
+    <hyperlink ref="A65" r:id="rId18"/>
+    <hyperlink ref="A68" r:id="rId19"/>
+    <hyperlink ref="A71" r:id="rId20" display="https://www.aliexpress.com/item/2016-Newest-1-x-Optical-Endstop-End-Stop-Limit-Switch-Solution-for-3D-Printer-or-CNC/32656689805.html?spm=2114.01010208.3.9.TjpVYa&amp;ws_ab_test=searchweb0_0,searchweb201602_3_10152_10065_10151_10068_10136_10137_10060_10138_10155_10062_10156_10134_10154_10056_10055_10054_10059_10099_10103_10102_10096_10148_10147_10052_10053_10142_10107_10050_10051_10084_10083_10080_10082_10081_10177_10110_10111_10112_10113_10114_10181_10037_10033_10032_10078_10079_10077_10073_10070_10123_10124,searchweb201603_2,afswitch_1,ppcSwitch_7&amp;btsid=0a677c30-15c5-4511-bd9b-21cec7f98719&amp;algo_expid=9458fd9d-18ca-4360-9463-2e064369527b-4&amp;algo_pvid=9458fd9d-18ca-4360-9463-2e064369527b"/>
+    <hyperlink ref="A76" r:id="rId21"/>
+    <hyperlink ref="A79" r:id="rId22"/>
+    <hyperlink ref="A82" r:id="rId23"/>
+    <hyperlink ref="A85" r:id="rId24"/>
+    <hyperlink ref="A88" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
